--- a/data-raw/model-runs/EPA-nonco2.xlsx
+++ b/data-raw/model-runs/EPA-nonco2.xlsx
@@ -8,17 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\LEEP\data-raw\model-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8972E3-61A4-4470-84CA-01E3D053169D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FE1009-2760-4BCC-BDD0-35D9D6CC9164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="4755" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -384,23 +398,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="33" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -417,91 +430,115 @@
         <v>0</v>
       </c>
       <c r="F1">
+        <v>1970</v>
+      </c>
+      <c r="G1">
+        <v>1975</v>
+      </c>
+      <c r="H1">
+        <v>1980</v>
+      </c>
+      <c r="I1">
+        <v>1985</v>
+      </c>
+      <c r="J1">
         <v>1990</v>
       </c>
-      <c r="G1">
+      <c r="K1">
+        <v>1991</v>
+      </c>
+      <c r="L1">
+        <v>1992</v>
+      </c>
+      <c r="M1">
+        <v>1993</v>
+      </c>
+      <c r="N1">
+        <v>1994</v>
+      </c>
+      <c r="O1">
         <v>1995</v>
       </c>
-      <c r="H1">
+      <c r="P1">
         <v>1996</v>
       </c>
-      <c r="I1">
+      <c r="Q1">
         <v>1997</v>
       </c>
-      <c r="J1">
+      <c r="R1">
         <v>1998</v>
       </c>
-      <c r="K1">
+      <c r="S1">
         <v>1999</v>
       </c>
-      <c r="L1">
+      <c r="T1">
         <v>2000</v>
       </c>
-      <c r="M1">
+      <c r="U1">
         <v>2001</v>
       </c>
-      <c r="N1">
+      <c r="V1">
         <v>2002</v>
       </c>
-      <c r="O1">
+      <c r="W1">
         <v>2003</v>
       </c>
-      <c r="P1">
+      <c r="X1">
         <v>2004</v>
       </c>
-      <c r="Q1">
+      <c r="Y1">
         <v>2005</v>
       </c>
-      <c r="R1">
+      <c r="Z1">
         <v>2006</v>
       </c>
-      <c r="S1">
+      <c r="AA1">
         <v>2007</v>
       </c>
-      <c r="T1">
+      <c r="AB1">
         <v>2008</v>
       </c>
-      <c r="U1">
+      <c r="AC1">
         <v>2009</v>
       </c>
-      <c r="V1">
+      <c r="AD1">
         <v>2010</v>
       </c>
-      <c r="W1">
+      <c r="AE1">
         <v>2011</v>
       </c>
-      <c r="X1">
+      <c r="AF1">
         <v>2012</v>
       </c>
-      <c r="Y1">
+      <c r="AG1">
         <v>2013</v>
       </c>
-      <c r="Z1">
+      <c r="AH1">
         <v>2014</v>
       </c>
-      <c r="AA1">
+      <c r="AI1">
         <v>2015</v>
       </c>
-      <c r="AB1">
+      <c r="AJ1">
         <v>2016</v>
       </c>
-      <c r="AC1">
+      <c r="AK1">
         <v>2017</v>
       </c>
-      <c r="AD1">
+      <c r="AL1">
         <v>2018</v>
       </c>
-      <c r="AE1">
+      <c r="AM1">
         <v>2019</v>
       </c>
-      <c r="AF1">
+      <c r="AN1">
         <v>2020</v>
       </c>
-      <c r="AG1">
+      <c r="AO1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -509,100 +546,118 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>14.272837766609999</v>
+        <v>24.386947170000003</v>
       </c>
       <c r="G2">
-        <v>10.731940762315499</v>
+        <v>23.92972593</v>
       </c>
       <c r="H2">
-        <v>11.352011779569001</v>
+        <v>24.5665698</v>
       </c>
       <c r="I2">
-        <v>11.74125464110791</v>
+        <v>23.366364045000001</v>
       </c>
       <c r="J2">
-        <v>11.877639925008539</v>
+        <v>23.157711495000001</v>
       </c>
       <c r="K2">
-        <v>11.296865483037735</v>
+        <v>22.842918300000001</v>
       </c>
       <c r="L2">
-        <v>10.16182937918499</v>
+        <v>22.916400284999998</v>
       </c>
       <c r="M2">
-        <v>9.6496169985042748</v>
+        <v>23.00258286</v>
       </c>
       <c r="N2">
-        <v>9.2486226656848061</v>
+        <v>22.997139750000002</v>
       </c>
       <c r="O2">
-        <v>9.6113986207587452</v>
+        <v>22.638801675</v>
       </c>
       <c r="P2">
-        <v>9.3070032164475602</v>
+        <v>22.486722315581257</v>
       </c>
       <c r="Q2">
-        <v>9.2738248183676557</v>
+        <v>22.411966044099149</v>
       </c>
       <c r="R2">
-        <v>8.5207369286843715</v>
+        <v>22.087922601168898</v>
       </c>
       <c r="S2">
-        <v>8.1043527239712763</v>
+        <v>20.724408350820152</v>
       </c>
       <c r="T2">
-        <v>6.909528089205855</v>
+        <v>20.500959971808225</v>
       </c>
       <c r="U2">
-        <v>5.2759310624445153</v>
+        <v>19.548485688451354</v>
       </c>
       <c r="V2">
-        <v>4.6886032212671704</v>
+        <v>21.735028149740412</v>
       </c>
       <c r="W2">
-        <v>4.1238521021880894</v>
+        <v>20.548263006895574</v>
       </c>
       <c r="X2">
-        <v>3.0134277105681302</v>
+        <v>19.351290019047489</v>
       </c>
       <c r="Y2">
-        <v>2.944277750760345</v>
+        <v>18.465536984163808</v>
       </c>
       <c r="Z2">
-        <v>2.86563540264522</v>
+        <v>17.44244607776114</v>
       </c>
       <c r="AA2">
-        <v>2.0115770676840152</v>
+        <v>16.419355171358479</v>
       </c>
       <c r="AB2">
-        <v>1.3525782494790601</v>
+        <v>15.339917000865258</v>
       </c>
       <c r="AC2">
-        <v>1.213976348842245</v>
+        <v>14.307854438272667</v>
       </c>
       <c r="AD2">
-        <v>1.1471418181752149</v>
+        <v>13.468479998818728</v>
       </c>
       <c r="AE2">
-        <v>0.87924886841857497</v>
+        <v>13.171340605700413</v>
       </c>
       <c r="AF2">
-        <v>0.71414260364813997</v>
+        <v>12.590623239750217</v>
       </c>
       <c r="AG2">
-        <v>0.85456618619605496</v>
+        <v>12.009905873800019</v>
+      </c>
+      <c r="AH2">
+        <v>11.420855852747357</v>
+      </c>
+      <c r="AI2">
+        <v>10.597602154646138</v>
+      </c>
+      <c r="AJ2">
+        <v>9.3473983450316265</v>
+      </c>
+      <c r="AK2">
+        <v>8.9250576275486573</v>
+      </c>
+      <c r="AL2">
+        <v>8.356373566501059</v>
+      </c>
+      <c r="AM2">
+        <v>7.7732297299475581</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -610,100 +665,118 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>5.8204001004218098</v>
+        <v>28.320501329999999</v>
       </c>
       <c r="G3">
-        <v>5.2970702700779997</v>
+        <v>25.441096140000003</v>
       </c>
       <c r="H3">
-        <v>5.453357924634</v>
+        <v>23.51967831</v>
       </c>
       <c r="I3">
-        <v>5.4671718429102905</v>
+        <v>21.143760794999999</v>
       </c>
       <c r="J3">
-        <v>5.4129743448621603</v>
+        <v>20.935108245000002</v>
       </c>
       <c r="K3">
-        <v>4.9872075947087096</v>
+        <v>20.298128977638751</v>
       </c>
       <c r="L3">
-        <v>4.6305956314944297</v>
+        <v>20.032459170000003</v>
       </c>
       <c r="M3">
-        <v>4.2700073920569457</v>
+        <v>19.752139005</v>
       </c>
       <c r="N3">
-        <v>4.0590024360555903</v>
+        <v>19.364771010000002</v>
       </c>
       <c r="O3">
-        <v>3.7825932961833</v>
+        <v>16.890877515</v>
       </c>
       <c r="P3">
-        <v>3.4142663341541999</v>
+        <v>16.678839767885098</v>
       </c>
       <c r="Q3">
-        <v>3.2961238275561602</v>
+        <v>17.091243129605697</v>
       </c>
       <c r="R3">
-        <v>3.0928470317914654</v>
+        <v>17.186082834982951</v>
       </c>
       <c r="S3">
-        <v>2.9789437562463599</v>
+        <v>15.917001280554018</v>
       </c>
       <c r="T3">
-        <v>2.7185053379579402</v>
+        <v>14.829751530315525</v>
       </c>
       <c r="U3">
-        <v>1.834239288339975</v>
+        <v>14.45295901995903</v>
       </c>
       <c r="V3">
-        <v>1.909625175241995</v>
+        <v>13.636863861579602</v>
       </c>
       <c r="W3">
-        <v>1.7935801683609001</v>
+        <v>13.433544698473284</v>
       </c>
       <c r="X3">
-        <v>1.556588865375885</v>
+        <v>13.218994520049794</v>
       </c>
       <c r="Y3">
-        <v>1.565514038076345</v>
+        <v>13.195684831065913</v>
       </c>
       <c r="Z3">
-        <v>1.512857295774735</v>
+        <v>11.904585989024728</v>
       </c>
       <c r="AA3">
-        <v>1.2547242278017199</v>
+        <v>10.613487146983541</v>
       </c>
       <c r="AB3">
-        <v>1.0928634736142551</v>
+        <v>9.3654675585145135</v>
       </c>
       <c r="AC3">
-        <v>0.96819509089539013</v>
+        <v>8.2456200653837097</v>
       </c>
       <c r="AD3">
-        <v>0.93286098810893991</v>
+        <v>7.0145434910598023</v>
       </c>
       <c r="AE3">
-        <v>0.80048419547805005</v>
+        <v>5.8775057097853853</v>
       </c>
       <c r="AF3">
-        <v>0.67149375843730508</v>
+        <v>4.6078582769020846</v>
       </c>
       <c r="AG3">
-        <v>0.70937405373451501</v>
+        <v>4.4210918217509656</v>
+      </c>
+      <c r="AH3">
+        <v>4.2405967864735601</v>
+      </c>
+      <c r="AI3">
+        <v>3.5788707357022127</v>
+      </c>
+      <c r="AJ3">
+        <v>2.9066820904860089</v>
+      </c>
+      <c r="AK3">
+        <v>2.3037954826662608</v>
+      </c>
+      <c r="AL3">
+        <v>2.2121636359598726</v>
+      </c>
+      <c r="AM3">
+        <v>1.7998830564673491</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -711,106 +784,100 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>23.157711495000001</v>
-      </c>
-      <c r="G4">
-        <v>22.842918300000001</v>
-      </c>
-      <c r="H4">
-        <v>22.916400284999998</v>
-      </c>
-      <c r="I4">
-        <v>23.00258286</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>22.997139750000002</v>
-      </c>
-      <c r="K4">
-        <v>22.638801675</v>
-      </c>
-      <c r="L4">
-        <v>22.486722315581257</v>
-      </c>
-      <c r="M4">
-        <v>22.411966044099149</v>
-      </c>
-      <c r="N4">
-        <v>22.087922601168898</v>
+        <v>14.272837766609999</v>
       </c>
       <c r="O4">
-        <v>20.724408350820152</v>
+        <v>10.731940762315499</v>
       </c>
       <c r="P4">
-        <v>20.500959971808225</v>
+        <v>11.352011779569001</v>
       </c>
       <c r="Q4">
-        <v>19.548485688451354</v>
+        <v>11.74125464110791</v>
       </c>
       <c r="R4">
-        <v>21.735028149740412</v>
+        <v>11.877639925008539</v>
       </c>
       <c r="S4">
-        <v>20.548263006895574</v>
+        <v>11.296865483037735</v>
       </c>
       <c r="T4">
-        <v>19.351290019047489</v>
+        <v>10.16182937918499</v>
       </c>
       <c r="U4">
-        <v>18.465536984163808</v>
+        <v>9.6496169985042748</v>
       </c>
       <c r="V4">
-        <v>17.44244607776114</v>
+        <v>9.2486226656848061</v>
       </c>
       <c r="W4">
-        <v>16.419355171358479</v>
+        <v>9.6113986207587452</v>
       </c>
       <c r="X4">
-        <v>15.339917000865258</v>
+        <v>9.3070032164475602</v>
       </c>
       <c r="Y4">
-        <v>14.307854438272667</v>
+        <v>9.2738248183676557</v>
       </c>
       <c r="Z4">
-        <v>13.468479998818728</v>
+        <v>8.5207369286843715</v>
       </c>
       <c r="AA4">
-        <v>13.171340605700413</v>
+        <v>8.1043527239712763</v>
       </c>
       <c r="AB4">
-        <v>12.590623239750217</v>
+        <v>6.909528089205855</v>
       </c>
       <c r="AC4">
-        <v>12.009905873800019</v>
+        <v>5.2759310624445153</v>
       </c>
       <c r="AD4">
-        <v>11.420855852747357</v>
+        <v>4.6886032212671704</v>
       </c>
       <c r="AE4">
-        <v>10.597602154646138</v>
+        <v>4.1238521021880894</v>
       </c>
       <c r="AF4">
-        <v>9.3473983450316265</v>
+        <v>3.0134277105681302</v>
       </c>
       <c r="AG4">
-        <v>8.9250576275486573</v>
+        <v>2.944277750760345</v>
       </c>
       <c r="AH4">
-        <v>8.356373566501059</v>
+        <v>2.86563540264522</v>
       </c>
       <c r="AI4">
-        <v>7.7732297299475581</v>
+        <v>2.0115770676840152</v>
+      </c>
+      <c r="AJ4">
+        <v>1.3525782494790601</v>
+      </c>
+      <c r="AK4">
+        <v>1.213976348842245</v>
+      </c>
+      <c r="AL4">
+        <v>1.1471418181752149</v>
+      </c>
+      <c r="AM4">
+        <v>0.87924886841857497</v>
+      </c>
+      <c r="AN4">
+        <v>0.71414260364813997</v>
+      </c>
+      <c r="AO4">
+        <v>0.85456618619605496</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -818,106 +885,105 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>20.935108245000002</v>
-      </c>
-      <c r="G5">
-        <v>20.298128977638751</v>
-      </c>
-      <c r="H5">
-        <v>20.032459170000003</v>
-      </c>
-      <c r="I5">
-        <v>19.752139005</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>19.364771010000002</v>
-      </c>
-      <c r="K5">
-        <v>16.890877515</v>
-      </c>
-      <c r="L5">
-        <v>16.678839767885098</v>
-      </c>
-      <c r="M5">
-        <v>17.091243129605697</v>
-      </c>
-      <c r="N5">
-        <v>17.186082834982951</v>
+        <v>5.8204001004218098</v>
       </c>
       <c r="O5">
-        <v>15.917001280554018</v>
+        <v>5.2970702700779997</v>
       </c>
       <c r="P5">
-        <v>14.829751530315525</v>
+        <v>5.453357924634</v>
       </c>
       <c r="Q5">
-        <v>14.45295901995903</v>
+        <v>5.4671718429102905</v>
       </c>
       <c r="R5">
-        <v>13.636863861579602</v>
+        <v>5.4129743448621603</v>
       </c>
       <c r="S5">
-        <v>13.433544698473284</v>
+        <v>4.9872075947087096</v>
       </c>
       <c r="T5">
-        <v>13.218994520049794</v>
+        <v>4.6305956314944297</v>
       </c>
       <c r="U5">
-        <v>13.195684831065913</v>
+        <v>4.2700073920569457</v>
       </c>
       <c r="V5">
-        <v>11.904585989024728</v>
+        <v>4.0590024360555903</v>
       </c>
       <c r="W5">
-        <v>10.613487146983541</v>
+        <v>3.7825932961833</v>
       </c>
       <c r="X5">
-        <v>9.3654675585145135</v>
+        <v>3.4142663341541999</v>
       </c>
       <c r="Y5">
-        <v>8.2456200653837097</v>
+        <v>3.2961238275561602</v>
       </c>
       <c r="Z5">
-        <v>7.0145434910598023</v>
+        <v>3.0928470317914654</v>
       </c>
       <c r="AA5">
-        <v>5.8775057097853853</v>
+        <v>2.9789437562463599</v>
       </c>
       <c r="AB5">
-        <v>4.6078582769020846</v>
+        <v>2.7185053379579402</v>
       </c>
       <c r="AC5">
-        <v>4.4210918217509656</v>
+        <v>1.834239288339975</v>
       </c>
       <c r="AD5">
-        <v>4.2405967864735601</v>
+        <v>1.909625175241995</v>
       </c>
       <c r="AE5">
-        <v>3.5788707357022127</v>
+        <v>1.7935801683609001</v>
       </c>
       <c r="AF5">
-        <v>2.9066820904860089</v>
+        <v>1.556588865375885</v>
       </c>
       <c r="AG5">
-        <v>2.3037954826662608</v>
+        <v>1.565514038076345</v>
       </c>
       <c r="AH5">
-        <v>2.2121636359598726</v>
+        <v>1.512857295774735</v>
       </c>
       <c r="AI5">
-        <v>1.7998830564673491</v>
+        <v>1.2547242278017199</v>
+      </c>
+      <c r="AJ5">
+        <v>1.0928634736142551</v>
+      </c>
+      <c r="AK5">
+        <v>0.96819509089539013</v>
+      </c>
+      <c r="AL5">
+        <v>0.93286098810893991</v>
+      </c>
+      <c r="AM5">
+        <v>0.80048419547805005</v>
+      </c>
+      <c r="AN5">
+        <v>0.67149375843730508</v>
+      </c>
+      <c r="AO5">
+        <v>0.70937405373451501</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E2">
+      <sortCondition ref="E1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>